--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema3a-Nrp2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema3a-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.843895643341168</v>
+        <v>1.072431333333333</v>
       </c>
       <c r="H2">
-        <v>0.843895643341168</v>
+        <v>3.217294</v>
       </c>
       <c r="I2">
-        <v>0.2763466094011995</v>
+        <v>0.2939553384953704</v>
       </c>
       <c r="J2">
-        <v>0.2763466094011995</v>
+        <v>0.3390161022675017</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>38.5748360580934</v>
+        <v>44.13164066666667</v>
       </c>
       <c r="N2">
-        <v>38.5748360580934</v>
+        <v>132.394922</v>
       </c>
       <c r="O2">
-        <v>0.422752321903902</v>
+        <v>0.4415399811720331</v>
       </c>
       <c r="P2">
-        <v>0.422752321903902</v>
+        <v>0.4562856844211927</v>
       </c>
       <c r="Q2">
-        <v>32.55313609202481</v>
+        <v>47.32815424234089</v>
       </c>
       <c r="R2">
-        <v>32.55313609202481</v>
+        <v>425.953388181068</v>
       </c>
       <c r="S2">
-        <v>0.1168261707746278</v>
+        <v>0.1297930346246645</v>
       </c>
       <c r="T2">
-        <v>0.1168261707746278</v>
+        <v>0.1546881942529321</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.843895643341168</v>
+        <v>1.072431333333333</v>
       </c>
       <c r="H3">
-        <v>0.843895643341168</v>
+        <v>3.217294</v>
       </c>
       <c r="I3">
-        <v>0.2763466094011995</v>
+        <v>0.2939553384953704</v>
       </c>
       <c r="J3">
-        <v>0.2763466094011995</v>
+        <v>0.3390161022675017</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.6183485788859</v>
+        <v>14.93259333333333</v>
       </c>
       <c r="N3">
-        <v>13.6183485788859</v>
+        <v>44.79778</v>
       </c>
       <c r="O3">
-        <v>0.1492472572936004</v>
+        <v>0.1494015830739255</v>
       </c>
       <c r="P3">
-        <v>0.1492472572936004</v>
+        <v>0.1543910098595022</v>
       </c>
       <c r="Q3">
-        <v>11.4924650352232</v>
+        <v>16.01418097859111</v>
       </c>
       <c r="R3">
-        <v>11.4924650352232</v>
+        <v>144.12762880732</v>
       </c>
       <c r="S3">
-        <v>0.0412439735155149</v>
+        <v>0.04391739292423996</v>
       </c>
       <c r="T3">
-        <v>0.0412439735155149</v>
+        <v>0.05234103838771184</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.843895643341168</v>
+        <v>1.072431333333333</v>
       </c>
       <c r="H4">
-        <v>0.843895643341168</v>
+        <v>3.217294</v>
       </c>
       <c r="I4">
-        <v>0.2763466094011995</v>
+        <v>0.2939553384953704</v>
       </c>
       <c r="J4">
-        <v>0.2763466094011995</v>
+        <v>0.3390161022675017</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.7092568522669</v>
+        <v>13.61024133333333</v>
       </c>
       <c r="N4">
-        <v>12.7092568522669</v>
+        <v>40.830724</v>
       </c>
       <c r="O4">
-        <v>0.1392842690472466</v>
+        <v>0.1361713639304118</v>
       </c>
       <c r="P4">
-        <v>0.1392842690472466</v>
+        <v>0.1407189532975654</v>
       </c>
       <c r="Q4">
-        <v>10.72528648773192</v>
+        <v>14.59604926009511</v>
       </c>
       <c r="R4">
-        <v>10.72528648773192</v>
+        <v>131.364443340856</v>
       </c>
       <c r="S4">
-        <v>0.03849073549413103</v>
+        <v>0.04002829937754046</v>
       </c>
       <c r="T4">
-        <v>0.03849073549413103</v>
+        <v>0.04770599106210323</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.843895643341168</v>
+        <v>1.072431333333333</v>
       </c>
       <c r="H5">
-        <v>0.843895643341168</v>
+        <v>3.217294</v>
       </c>
       <c r="I5">
-        <v>0.2763466094011995</v>
+        <v>0.2939553384953704</v>
       </c>
       <c r="J5">
-        <v>0.2763466094011995</v>
+        <v>0.3390161022675017</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0998443410514</v>
+        <v>17.584752</v>
       </c>
       <c r="N5">
-        <v>17.0998443410514</v>
+        <v>52.754256</v>
       </c>
       <c r="O5">
-        <v>0.1874019344758319</v>
+        <v>0.1759366057935712</v>
       </c>
       <c r="P5">
-        <v>0.1874019344758319</v>
+        <v>0.1818121982434553</v>
       </c>
       <c r="Q5">
-        <v>14.4304841412254</v>
+        <v>18.858439033696</v>
       </c>
       <c r="R5">
-        <v>14.4304841412254</v>
+        <v>169.725951303264</v>
       </c>
       <c r="S5">
-        <v>0.0517878891876219</v>
+        <v>0.05171750450977577</v>
       </c>
       <c r="T5">
-        <v>0.0517878891876219</v>
+        <v>0.06163726279318255</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.843895643341168</v>
+        <v>1.072431333333333</v>
       </c>
       <c r="H6">
-        <v>0.843895643341168</v>
+        <v>3.217294</v>
       </c>
       <c r="I6">
-        <v>0.2763466094011995</v>
+        <v>0.2939553384953704</v>
       </c>
       <c r="J6">
-        <v>0.2763466094011995</v>
+        <v>0.3390161022675017</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.24460758561141</v>
+        <v>9.690137500000001</v>
       </c>
       <c r="N6">
-        <v>9.24460758561141</v>
+        <v>19.380275</v>
       </c>
       <c r="O6">
-        <v>0.1013142172794192</v>
+        <v>0.09695046603005844</v>
       </c>
       <c r="P6">
-        <v>0.1013142172794192</v>
+        <v>0.06679215417828435</v>
       </c>
       <c r="Q6">
-        <v>7.801484065896182</v>
+        <v>10.39200707930833</v>
       </c>
       <c r="R6">
-        <v>7.801484065896182</v>
+        <v>62.35204247585</v>
       </c>
       <c r="S6">
-        <v>0.02799784042930391</v>
+        <v>0.02849910705914974</v>
       </c>
       <c r="T6">
-        <v>0.02799784042930391</v>
+        <v>0.02264361577157199</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8506916160840849</v>
+        <v>1.120836666666667</v>
       </c>
       <c r="H7">
-        <v>0.8506916160840849</v>
+        <v>3.36251</v>
       </c>
       <c r="I7">
-        <v>0.278572055213021</v>
+        <v>0.307223326573222</v>
       </c>
       <c r="J7">
-        <v>0.278572055213021</v>
+        <v>0.35431795603246</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>38.5748360580934</v>
+        <v>44.13164066666667</v>
       </c>
       <c r="N7">
-        <v>38.5748360580934</v>
+        <v>132.394922</v>
       </c>
       <c r="O7">
-        <v>0.422752321903902</v>
+        <v>0.4415399811720331</v>
       </c>
       <c r="P7">
-        <v>0.422752321903902</v>
+        <v>0.4562856844211927</v>
       </c>
       <c r="Q7">
-        <v>32.81528962643811</v>
+        <v>49.46436101935778</v>
       </c>
       <c r="R7">
-        <v>32.81528962643811</v>
+        <v>445.17924917422</v>
       </c>
       <c r="S7">
-        <v>0.1177669831588466</v>
+        <v>0.1356513818307498</v>
       </c>
       <c r="T7">
-        <v>0.1177669831588466</v>
+        <v>0.1616702110709891</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8506916160840849</v>
+        <v>1.120836666666667</v>
       </c>
       <c r="H8">
-        <v>0.8506916160840849</v>
+        <v>3.36251</v>
       </c>
       <c r="I8">
-        <v>0.278572055213021</v>
+        <v>0.307223326573222</v>
       </c>
       <c r="J8">
-        <v>0.278572055213021</v>
+        <v>0.35431795603246</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.6183485788859</v>
+        <v>14.93259333333333</v>
       </c>
       <c r="N8">
-        <v>13.6183485788859</v>
+        <v>44.79778</v>
       </c>
       <c r="O8">
-        <v>0.1492472572936004</v>
+        <v>0.1494015830739255</v>
       </c>
       <c r="P8">
-        <v>0.1492472572936004</v>
+        <v>0.1543910098595022</v>
       </c>
       <c r="Q8">
-        <v>11.58501496096885</v>
+        <v>16.73699813642223</v>
       </c>
       <c r="R8">
-        <v>11.58501496096885</v>
+        <v>150.6329832278</v>
       </c>
       <c r="S8">
-        <v>0.0415761151991848</v>
+        <v>0.04589965134727697</v>
       </c>
       <c r="T8">
-        <v>0.0415761151991848</v>
+        <v>0.05470350704320618</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8506916160840849</v>
+        <v>1.120836666666667</v>
       </c>
       <c r="H9">
-        <v>0.8506916160840849</v>
+        <v>3.36251</v>
       </c>
       <c r="I9">
-        <v>0.278572055213021</v>
+        <v>0.307223326573222</v>
       </c>
       <c r="J9">
-        <v>0.278572055213021</v>
+        <v>0.35431795603246</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.7092568522669</v>
+        <v>13.61024133333333</v>
       </c>
       <c r="N9">
-        <v>12.7092568522669</v>
+        <v>40.830724</v>
       </c>
       <c r="O9">
-        <v>0.1392842690472466</v>
+        <v>0.1361713639304118</v>
       </c>
       <c r="P9">
-        <v>0.1392842690472466</v>
+        <v>0.1407189532975654</v>
       </c>
       <c r="Q9">
-        <v>10.81165825088266</v>
+        <v>15.25485752858222</v>
       </c>
       <c r="R9">
-        <v>10.81165825088266</v>
+        <v>137.29371775724</v>
       </c>
       <c r="S9">
-        <v>0.03880070508733485</v>
+        <v>0.04183501941071396</v>
       </c>
       <c r="T9">
-        <v>0.03880070508733485</v>
+        <v>0.04985925190742058</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8506916160840849</v>
+        <v>1.120836666666667</v>
       </c>
       <c r="H10">
-        <v>0.8506916160840849</v>
+        <v>3.36251</v>
       </c>
       <c r="I10">
-        <v>0.278572055213021</v>
+        <v>0.307223326573222</v>
       </c>
       <c r="J10">
-        <v>0.278572055213021</v>
+        <v>0.35431795603246</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.0998443410514</v>
+        <v>17.584752</v>
       </c>
       <c r="N10">
-        <v>17.0998443410514</v>
+        <v>52.754256</v>
       </c>
       <c r="O10">
-        <v>0.1874019344758319</v>
+        <v>0.1759366057935712</v>
       </c>
       <c r="P10">
-        <v>0.1874019344758319</v>
+        <v>0.1818121982434553</v>
       </c>
       <c r="Q10">
-        <v>14.54669421727531</v>
+        <v>19.70963481584</v>
       </c>
       <c r="R10">
-        <v>14.54669421727531</v>
+        <v>177.38671334256</v>
       </c>
       <c r="S10">
-        <v>0.0522049420378284</v>
+        <v>0.05405182929790257</v>
       </c>
       <c r="T10">
-        <v>0.0522049420378284</v>
+        <v>0.06441932646338951</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8506916160840849</v>
+        <v>1.120836666666667</v>
       </c>
       <c r="H11">
-        <v>0.8506916160840849</v>
+        <v>3.36251</v>
       </c>
       <c r="I11">
-        <v>0.278572055213021</v>
+        <v>0.307223326573222</v>
       </c>
       <c r="J11">
-        <v>0.278572055213021</v>
+        <v>0.35431795603246</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.24460758561141</v>
+        <v>9.690137500000001</v>
       </c>
       <c r="N11">
-        <v>9.24460758561141</v>
+        <v>19.380275</v>
       </c>
       <c r="O11">
-        <v>0.1013142172794192</v>
+        <v>0.09695046603005844</v>
       </c>
       <c r="P11">
-        <v>0.1013142172794192</v>
+        <v>0.06679215417828435</v>
       </c>
       <c r="Q11">
-        <v>7.864310167066961</v>
+        <v>10.86106141504167</v>
       </c>
       <c r="R11">
-        <v>7.864310167066961</v>
+        <v>65.16636849025001</v>
       </c>
       <c r="S11">
-        <v>0.02822330972982637</v>
+        <v>0.02978544468657872</v>
       </c>
       <c r="T11">
-        <v>0.02822330972982637</v>
+        <v>0.02366565954745464</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.35917064688581</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H12">
-        <v>1.35917064688581</v>
+        <v>0.000793</v>
       </c>
       <c r="I12">
-        <v>0.4450813353857795</v>
+        <v>7.245423745135779E-05</v>
       </c>
       <c r="J12">
-        <v>0.4450813353857795</v>
+        <v>8.356083376220166E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>38.5748360580934</v>
+        <v>44.13164066666667</v>
       </c>
       <c r="N12">
-        <v>38.5748360580934</v>
+        <v>132.394922</v>
       </c>
       <c r="O12">
-        <v>0.422752321903902</v>
+        <v>0.4415399811720331</v>
       </c>
       <c r="P12">
-        <v>0.422752321903902</v>
+        <v>0.4562856844211927</v>
       </c>
       <c r="Q12">
-        <v>52.42978487859288</v>
+        <v>0.01166546368288889</v>
       </c>
       <c r="R12">
-        <v>52.42978487859288</v>
+        <v>0.104989173146</v>
       </c>
       <c r="S12">
-        <v>0.1881591679704276</v>
+        <v>3.199144264010654E-05</v>
       </c>
       <c r="T12">
-        <v>0.1881591679704276</v>
+        <v>3.812761222399169E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.35917064688581</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H13">
-        <v>1.35917064688581</v>
+        <v>0.000793</v>
       </c>
       <c r="I13">
-        <v>0.4450813353857795</v>
+        <v>7.245423745135779E-05</v>
       </c>
       <c r="J13">
-        <v>0.4450813353857795</v>
+        <v>8.356083376220166E-05</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.6183485788859</v>
+        <v>14.93259333333333</v>
       </c>
       <c r="N13">
-        <v>13.6183485788859</v>
+        <v>44.79778</v>
       </c>
       <c r="O13">
-        <v>0.1492472572936004</v>
+        <v>0.1494015830739255</v>
       </c>
       <c r="P13">
-        <v>0.1492472572936004</v>
+        <v>0.1543910098595022</v>
       </c>
       <c r="Q13">
-        <v>18.5096596474808</v>
+        <v>0.003947182171111111</v>
       </c>
       <c r="R13">
-        <v>18.5096596474808</v>
+        <v>0.03552463954</v>
       </c>
       <c r="S13">
-        <v>0.06642716857890067</v>
+        <v>1.082477777564695E-05</v>
       </c>
       <c r="T13">
-        <v>0.06642716857890067</v>
+        <v>1.29010415092483E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.35917064688581</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H14">
-        <v>1.35917064688581</v>
+        <v>0.000793</v>
       </c>
       <c r="I14">
-        <v>0.4450813353857795</v>
+        <v>7.245423745135779E-05</v>
       </c>
       <c r="J14">
-        <v>0.4450813353857795</v>
+        <v>8.356083376220166E-05</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.7092568522669</v>
+        <v>13.61024133333333</v>
       </c>
       <c r="N14">
-        <v>12.7092568522669</v>
+        <v>40.830724</v>
       </c>
       <c r="O14">
-        <v>0.1392842690472466</v>
+        <v>0.1361713639304118</v>
       </c>
       <c r="P14">
-        <v>0.1392842690472466</v>
+        <v>0.1407189532975654</v>
       </c>
       <c r="Q14">
-        <v>17.27404885733352</v>
+        <v>0.003597640459111111</v>
       </c>
       <c r="R14">
-        <v>17.27404885733352</v>
+        <v>0.032378764132</v>
       </c>
       <c r="S14">
-        <v>0.0619928284657807</v>
+        <v>9.866192336289312E-06</v>
       </c>
       <c r="T14">
-        <v>0.0619928284657807</v>
+        <v>1.175859306368888E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.35917064688581</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H15">
-        <v>1.35917064688581</v>
+        <v>0.000793</v>
       </c>
       <c r="I15">
-        <v>0.4450813353857795</v>
+        <v>7.245423745135779E-05</v>
       </c>
       <c r="J15">
-        <v>0.4450813353857795</v>
+        <v>8.356083376220166E-05</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.0998443410514</v>
+        <v>17.584752</v>
       </c>
       <c r="N15">
-        <v>17.0998443410514</v>
+        <v>52.754256</v>
       </c>
       <c r="O15">
-        <v>0.1874019344758319</v>
+        <v>0.1759366057935712</v>
       </c>
       <c r="P15">
-        <v>0.1874019344758319</v>
+        <v>0.1818121982434553</v>
       </c>
       <c r="Q15">
-        <v>23.24160649467349</v>
+        <v>0.004648236112</v>
       </c>
       <c r="R15">
-        <v>23.24160649467349</v>
+        <v>0.041834125008</v>
       </c>
       <c r="S15">
-        <v>0.08340910325038163</v>
+        <v>1.274735261255334E-05</v>
       </c>
       <c r="T15">
-        <v>0.08340910325038163</v>
+        <v>1.519237887336182E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.0002643333333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.000793</v>
+      </c>
+      <c r="I16">
+        <v>7.245423745135779E-05</v>
+      </c>
+      <c r="J16">
+        <v>8.356083376220166E-05</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>9.690137500000001</v>
+      </c>
+      <c r="N16">
+        <v>19.380275</v>
+      </c>
+      <c r="O16">
+        <v>0.09695046603005844</v>
+      </c>
+      <c r="P16">
+        <v>0.06679215417828435</v>
+      </c>
+      <c r="Q16">
+        <v>0.002561426345833333</v>
+      </c>
+      <c r="R16">
+        <v>0.015368558075</v>
+      </c>
+      <c r="S16">
+        <v>7.024472086761652E-06</v>
+      </c>
+      <c r="T16">
+        <v>5.581208091910962E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.4547475</v>
+      </c>
+      <c r="H17">
+        <v>2.909495</v>
+      </c>
+      <c r="I17">
+        <v>0.3987488806939563</v>
+      </c>
+      <c r="J17">
+        <v>0.306582380866276</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>44.13164066666667</v>
+      </c>
+      <c r="N17">
+        <v>132.394922</v>
+      </c>
+      <c r="O17">
+        <v>0.4415399811720331</v>
+      </c>
+      <c r="P17">
+        <v>0.4562856844211927</v>
+      </c>
+      <c r="Q17">
+        <v>64.20039393073166</v>
+      </c>
+      <c r="R17">
+        <v>385.20236358439</v>
+      </c>
+      <c r="S17">
+        <v>0.1760635732739787</v>
+      </c>
+      <c r="T17">
+        <v>0.1398891514850475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.4547475</v>
+      </c>
+      <c r="H18">
+        <v>2.909495</v>
+      </c>
+      <c r="I18">
+        <v>0.3987488806939563</v>
+      </c>
+      <c r="J18">
+        <v>0.306582380866276</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>14.93259333333333</v>
+      </c>
+      <c r="N18">
+        <v>44.79778</v>
+      </c>
+      <c r="O18">
+        <v>0.1494015830739255</v>
+      </c>
+      <c r="P18">
+        <v>0.1543910098595022</v>
+      </c>
+      <c r="Q18">
+        <v>21.72315282018333</v>
+      </c>
+      <c r="R18">
+        <v>130.3389169211</v>
+      </c>
+      <c r="S18">
+        <v>0.05957371402463291</v>
+      </c>
+      <c r="T18">
+        <v>0.04733356338707487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.4547475</v>
+      </c>
+      <c r="H19">
+        <v>2.909495</v>
+      </c>
+      <c r="I19">
+        <v>0.3987488806939563</v>
+      </c>
+      <c r="J19">
+        <v>0.306582380866276</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>13.61024133333333</v>
+      </c>
+      <c r="N19">
+        <v>40.830724</v>
+      </c>
+      <c r="O19">
+        <v>0.1361713639304118</v>
+      </c>
+      <c r="P19">
+        <v>0.1407189532975654</v>
+      </c>
+      <c r="Q19">
+        <v>19.79946455406333</v>
+      </c>
+      <c r="R19">
+        <v>118.79678732438</v>
+      </c>
+      <c r="S19">
+        <v>0.05429817894982106</v>
+      </c>
+      <c r="T19">
+        <v>0.04314195173497792</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.35917064688581</v>
-      </c>
-      <c r="H16">
-        <v>1.35917064688581</v>
-      </c>
-      <c r="I16">
-        <v>0.4450813353857795</v>
-      </c>
-      <c r="J16">
-        <v>0.4450813353857795</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>9.24460758561141</v>
-      </c>
-      <c r="N16">
-        <v>9.24460758561141</v>
-      </c>
-      <c r="O16">
-        <v>0.1013142172794192</v>
-      </c>
-      <c r="P16">
-        <v>0.1013142172794192</v>
-      </c>
-      <c r="Q16">
-        <v>12.56499927234093</v>
-      </c>
-      <c r="R16">
-        <v>12.56499927234093</v>
-      </c>
-      <c r="S16">
-        <v>0.04509306712028892</v>
-      </c>
-      <c r="T16">
-        <v>0.04509306712028892</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.4547475</v>
+      </c>
+      <c r="H20">
+        <v>2.909495</v>
+      </c>
+      <c r="I20">
+        <v>0.3987488806939563</v>
+      </c>
+      <c r="J20">
+        <v>0.306582380866276</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>17.584752</v>
+      </c>
+      <c r="N20">
+        <v>52.754256</v>
+      </c>
+      <c r="O20">
+        <v>0.1759366057935712</v>
+      </c>
+      <c r="P20">
+        <v>0.1818121982434553</v>
+      </c>
+      <c r="Q20">
+        <v>25.58137401011999</v>
+      </c>
+      <c r="R20">
+        <v>153.48824406072</v>
+      </c>
+      <c r="S20">
+        <v>0.07015452463328035</v>
+      </c>
+      <c r="T20">
+        <v>0.05574041660800991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.4547475</v>
+      </c>
+      <c r="H21">
+        <v>2.909495</v>
+      </c>
+      <c r="I21">
+        <v>0.3987488806939563</v>
+      </c>
+      <c r="J21">
+        <v>0.306582380866276</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>9.690137500000001</v>
+      </c>
+      <c r="N21">
+        <v>19.380275</v>
+      </c>
+      <c r="O21">
+        <v>0.09695046603005844</v>
+      </c>
+      <c r="P21">
+        <v>0.06679215417828435</v>
+      </c>
+      <c r="Q21">
+        <v>14.09670330278125</v>
+      </c>
+      <c r="R21">
+        <v>56.38681321112499</v>
+      </c>
+      <c r="S21">
+        <v>0.03865888981224323</v>
+      </c>
+      <c r="T21">
+        <v>0.0204772976511658</v>
       </c>
     </row>
   </sheetData>
